--- a/src/main/java/data.xlsx
+++ b/src/main/java/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C89815D6-C5ED-47C0-91F7-B1FA97D202F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E89CD506-21CB-4415-9002-DA27219E99B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="20760" windowHeight="11820" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="20790" windowHeight="11820" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="excellogin" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="excelFlightBooking" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K17"/>
+  <oleSize ref="A1:J17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -459,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ACC70D0-E042-4A0B-B8EE-22206A27F23E}">
   <dimension ref="A1:O1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
